--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-04_end.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-04_end.xlsx
@@ -44,11 +44,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">After defeating the Reunion members there, Ch’en realizes that she has come to her old home.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch’en reflects upon past events, but her mood soon improves as she gains some more clues.
+    <t xml:space="preserve">After defeating the Reunion members there, Ch'en realizes that she has come to her old home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch'en reflects upon past events, but her mood soon improves as she gains some more clues.
 </t>
   </si>
   <si>
